--- a/individual_case_outputs/avey/333.xlsx
+++ b/individual_case_outputs/avey/333.xlsx
@@ -712,7 +712,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>chronic venous insufficiency</t>
+          <t>venous stasis ulcer</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -820,7 +820,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>chronic venous insufficiency</t>
+          <t>peripheral vascular disease</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -865,7 +865,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>chronic venous insufficiency</t>
+          <t>superficial thrombophlebitis</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
